--- a/data/attendance_bell_1st_2025-11-03.xlsx
+++ b/data/attendance_bell_1st_2025-11-03.xlsx
@@ -147,34 +147,6 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2286000" cy="1714500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -471,13 +443,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="24" customWidth="1" min="2" max="2"/>
@@ -516,45 +488,23 @@
     <row r="2" ht="140" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>123457</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Jane Doe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-11-03 09:15:49 CST</t>
-        </is>
-      </c>
+          <t>2025-11-03 09:42:56 CST</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-03/bell_1st_123456_091549.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="140" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>123457</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Jane Doe</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-11-03 09:31:16 CST</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-11-03/bell_1st_123457_093116.png</t>
+          <t>2025-11-03/bell_1st_123457_094257.png</t>
         </is>
       </c>
     </row>
